--- a/anunad_results.xlsx
+++ b/anunad_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\local\django projects\sec_res_administration\SecRDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BF930D-DDF5-4ECB-8734-6AE4E48C097F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CA11EC-DF46-431C-BB89-3EC3BC9062FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3540" windowWidth="14184" windowHeight="8664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="1">
-        <v>3.6</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">

--- a/anunad_results.xlsx
+++ b/anunad_results.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\local\django projects\sec_res_administration\SecRDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\2018-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CA11EC-DF46-431C-BB89-3EC3BC9062FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F77329-5CA3-4FF3-A4D6-C0B8EA58B704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="Q_EEE601" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Q_EEE601">results!$A$1:$L$57</definedName>
+    <definedName name="Q_EEE601">Q_EEE601!$A$1:$L$57</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Sl_No</t>
   </si>
@@ -77,6 +77,120 @@
   </si>
   <si>
     <t>2018338520</t>
+  </si>
+  <si>
+    <t>2018338521</t>
+  </si>
+  <si>
+    <t>2018338525</t>
+  </si>
+  <si>
+    <t>2018338526</t>
+  </si>
+  <si>
+    <t>2018338527</t>
+  </si>
+  <si>
+    <t>2018338528</t>
+  </si>
+  <si>
+    <t>2018338530</t>
+  </si>
+  <si>
+    <t>2018338532</t>
+  </si>
+  <si>
+    <t>2018338533</t>
+  </si>
+  <si>
+    <t>2018338534</t>
+  </si>
+  <si>
+    <t>2018338535</t>
+  </si>
+  <si>
+    <t>2018338536</t>
+  </si>
+  <si>
+    <t>2018338537</t>
+  </si>
+  <si>
+    <t>2018338538</t>
+  </si>
+  <si>
+    <t>2018338539</t>
+  </si>
+  <si>
+    <t>2018338541</t>
+  </si>
+  <si>
+    <t>2018338542</t>
+  </si>
+  <si>
+    <t>2018338543</t>
+  </si>
+  <si>
+    <t>2018338544</t>
+  </si>
+  <si>
+    <t>2018338545</t>
+  </si>
+  <si>
+    <t>2018338546</t>
+  </si>
+  <si>
+    <t>2018338547</t>
+  </si>
+  <si>
+    <t>2018338548</t>
+  </si>
+  <si>
+    <t>2018338550</t>
+  </si>
+  <si>
+    <t>2018338552</t>
+  </si>
+  <si>
+    <t>2018338556</t>
+  </si>
+  <si>
+    <t>2018338557</t>
+  </si>
+  <si>
+    <t>2018338558</t>
+  </si>
+  <si>
+    <t>2018338559</t>
+  </si>
+  <si>
+    <t>2018338561</t>
+  </si>
+  <si>
+    <t>2018338562</t>
+  </si>
+  <si>
+    <t>2018338563</t>
+  </si>
+  <si>
+    <t>2018338564</t>
+  </si>
+  <si>
+    <t>2018338565</t>
+  </si>
+  <si>
+    <t>2018338566</t>
+  </si>
+  <si>
+    <t>2018338567</t>
+  </si>
+  <si>
+    <t>2018338568</t>
+  </si>
+  <si>
+    <t>2018338569</t>
+  </si>
+  <si>
+    <t>2017338521</t>
   </si>
   <si>
     <t>reg</t>
@@ -464,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,13 +596,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -712,7 +826,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="1">
-        <v>3.64</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -727,6 +841,310 @@
       </c>
       <c r="D18" s="1">
         <v>3.54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/anunad_results.xlsx
+++ b/anunad_results.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\2018-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\local\django projects\sec_res_administration\SecRDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F77329-5CA3-4FF3-A4D6-C0B8EA58B704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE31EB-4B40-425F-8E6F-A14035AA2109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6720" yWindow="3636" windowWidth="14184" windowHeight="8664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Q_EEE601" sheetId="1" r:id="rId1"/>
+    <sheet name="Q_all_sem" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Q_EEE601">Q_EEE601!$A$1:$L$57</definedName>
+    <definedName name="Q_EEE601">Q_all_sem!$A$1:$L$57</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Sl_No</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>gp-1</t>
+  </si>
+  <si>
+    <t>credit-2</t>
+  </si>
+  <si>
+    <t>gp-2</t>
   </si>
 </sst>
 </file>
@@ -215,12 +221,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,9 +247,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,20 +593,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +622,14 @@
       <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -618,8 +642,14 @@
       <c r="D2" s="1">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -632,8 +662,14 @@
       <c r="D3" s="1">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -646,8 +682,14 @@
       <c r="D4" s="1">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -660,8 +702,14 @@
       <c r="D5" s="1">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -674,8 +722,14 @@
       <c r="D6" s="1">
         <v>3.36</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -688,8 +742,14 @@
       <c r="D7" s="1">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -702,8 +762,14 @@
       <c r="D8" s="1">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -716,8 +782,14 @@
       <c r="D9" s="1">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -730,8 +802,14 @@
       <c r="D10" s="1">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -744,8 +822,14 @@
       <c r="D11" s="1">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -758,8 +842,14 @@
       <c r="D12" s="1">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -772,8 +862,14 @@
       <c r="D13" s="1">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -786,8 +882,14 @@
       <c r="D14" s="1">
         <v>3.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -800,8 +902,14 @@
       <c r="D15" s="1">
         <v>3.69</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -814,8 +922,14 @@
       <c r="D16" s="1">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -828,8 +942,14 @@
       <c r="D17" s="1">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -842,309 +962,771 @@
       <c r="D18" s="1">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="E19" s="1">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="E20" s="1">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="E21" s="1">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="E23" s="1">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="E24" s="1">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="E25" s="1">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.32</v>
+      </c>
+      <c r="E26" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="E27" s="1">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="E28" s="1">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="E29" s="1">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="E30" s="1">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="E31" s="1">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="E32" s="1">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="E33" s="1">
+        <v>21</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="1">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="E34" s="1">
+        <v>21</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="C35" s="1">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="E35" s="1">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="E36" s="1">
+        <v>19</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="E37" s="1">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="1">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.38</v>
+      </c>
+      <c r="E38" s="1">
+        <v>21</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.83</v>
+      </c>
+      <c r="E39" s="1">
+        <v>21</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="1">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E41" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="1">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="E42" s="1">
+        <v>21</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="1">
+        <v>17</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="E43" s="1">
+        <v>21</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="1">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="E44" s="1">
+        <v>21</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="1">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="E45" s="1">
+        <v>21</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" s="1">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="E46" s="1">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" s="1">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="E47" s="1">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="1">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="E48" s="1">
+        <v>21</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="1">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="E49" s="1">
+        <v>21</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="1">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="E50" s="1">
+        <v>21</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="1">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="E51" s="1">
+        <v>21</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" s="1">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="E52" s="1">
+        <v>21</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" s="1">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="E53" s="1">
+        <v>21</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="1">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="E54" s="1">
+        <v>15</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="1">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="C56" s="1">
+        <v>17</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="E56" s="1">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.68</v>
       </c>
     </row>
   </sheetData>

--- a/anunad_results.xlsx
+++ b/anunad_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\local\django projects\sec_res_administration\SecRDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE31EB-4B40-425F-8E6F-A14035AA2109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C656F8-1386-4826-90FE-D4207752A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6720" yWindow="3636" windowWidth="14184" windowHeight="8664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q_all_sem" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Sl_No</t>
   </si>
@@ -206,6 +206,30 @@
   </si>
   <si>
     <t>gp-2</t>
+  </si>
+  <si>
+    <t>credit-3</t>
+  </si>
+  <si>
+    <t>gp-3</t>
+  </si>
+  <si>
+    <t>credit-4</t>
+  </si>
+  <si>
+    <t>gp-4</t>
+  </si>
+  <si>
+    <t>credit-5</t>
+  </si>
+  <si>
+    <t>gp-5</t>
+  </si>
+  <si>
+    <t>credit-6</t>
+  </si>
+  <si>
+    <t>gp-6</t>
   </si>
 </sst>
 </file>
@@ -247,13 +271,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,23 +620,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" customWidth="1"/>
     <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="7" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,8 +658,32 @@
       <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -648,8 +702,32 @@
       <c r="F2" s="1">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="I2" s="1">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="M2" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N2" s="3">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -668,8 +746,32 @@
       <c r="F3" s="1">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="I3" s="1">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="K3" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="M3" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -688,8 +790,32 @@
       <c r="F4" s="1">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="I4" s="1">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="M4" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -708,8 +834,32 @@
       <c r="F5" s="1">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="K5" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="M5" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -728,8 +878,32 @@
       <c r="F6" s="1">
         <v>3.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="I6" s="1">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="K6" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="M6" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -748,8 +922,32 @@
       <c r="F7" s="1">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="I7" s="1">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="K7" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="M7" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -768,8 +966,32 @@
       <c r="F8" s="1">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="I8" s="1">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="M8" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -788,8 +1010,32 @@
       <c r="F9" s="1">
         <v>3.09</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="I9" s="1">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="K9" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="M9" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -808,8 +1054,32 @@
       <c r="F10" s="1">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="M10" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -828,8 +1098,32 @@
       <c r="F11" s="1">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="I11" s="1">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="K11" s="1">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="M11" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -848,8 +1142,32 @@
       <c r="F12" s="1">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="I12" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="M12" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -868,8 +1186,32 @@
       <c r="F13" s="1">
         <v>3.28</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I13" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="K13" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="M13" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -888,8 +1230,32 @@
       <c r="F14" s="1">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="I14" s="1">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="K14" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="M14" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -908,8 +1274,32 @@
       <c r="F15" s="1">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="I15" s="1">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -928,8 +1318,32 @@
       <c r="F16" s="1">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="I16" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="K16" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="M16" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N16" s="3">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -948,8 +1362,32 @@
       <c r="F17" s="1">
         <v>2.96</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="I17" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="M17" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -968,8 +1406,32 @@
       <c r="F18" s="1">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="I18" s="1">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="K18" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="M18" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -988,8 +1450,32 @@
       <c r="F19" s="1">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="I19" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="K19" s="1">
+        <v>15</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="M19" s="3">
+        <v>22</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1008,8 +1494,32 @@
       <c r="F20" s="1">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="I20" s="1">
+        <v>22</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="K20" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="M20" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N20" s="3">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1028,8 +1538,32 @@
       <c r="F21" s="1">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="I21" s="1">
+        <v>25</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="K21" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="M21" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1048,8 +1582,32 @@
       <c r="F22" s="1">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="I22" s="1">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="K22" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="M22" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1068,8 +1626,32 @@
       <c r="F23" s="1">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="1">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="I23" s="1">
+        <v>22</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="K23" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="M23" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1088,8 +1670,32 @@
       <c r="F24" s="1">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="1">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="I24" s="1">
+        <v>22</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="K24" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1108,8 +1714,32 @@
       <c r="F25" s="1">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="1">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="I25" s="1">
+        <v>22</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="K25" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="M25" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1128,8 +1758,32 @@
       <c r="F26" s="1">
         <v>2.62</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="I26" s="1">
+        <v>25</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="K26" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="M26" s="3">
+        <v>22</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1148,8 +1802,32 @@
       <c r="F27" s="1">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="1">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="I27" s="1">
+        <v>22</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="K27" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="M27" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N27" s="3">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1168,8 +1846,32 @@
       <c r="F28" s="1">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="1">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="I28" s="1">
+        <v>22</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="K28" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="M28" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N28" s="3">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1188,8 +1890,32 @@
       <c r="F29" s="1">
         <v>3.52</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="1">
+        <v>21</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>22</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="K29" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="M29" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1208,8 +1934,32 @@
       <c r="F30" s="1">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="1">
+        <v>21</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="I30" s="1">
+        <v>22</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="K30" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="M30" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N30" s="3">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1228,8 +1978,32 @@
       <c r="F31" s="1">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="1">
+        <v>27</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="I31" s="1">
+        <v>25</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L31" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="M31" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N31" s="3">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1248,8 +2022,32 @@
       <c r="F32" s="1">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="1">
+        <v>21</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="I32" s="1">
+        <v>22</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="K32" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="M32" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N32" s="3">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1268,8 +2066,32 @@
       <c r="F33" s="1">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="1">
+        <v>21</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="I33" s="1">
+        <v>22</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="K33" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="M33" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N33" s="3">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1288,8 +2110,32 @@
       <c r="F34" s="1">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="1">
+        <v>21</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="I34" s="1">
+        <v>22</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="K34" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="M34" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N34" s="3">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1308,8 +2154,32 @@
       <c r="F35" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="1">
+        <v>24</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="I35" s="1">
+        <v>28</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="K35" s="1">
+        <v>15</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="M35" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N35" s="3">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1328,8 +2198,32 @@
       <c r="F36" s="1">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="1">
+        <v>21</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="I36" s="1">
+        <v>21</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="K36" s="1">
+        <v>9</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1348,8 +2242,32 @@
       <c r="F37" s="1">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="1">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="I37" s="1">
+        <v>28</v>
+      </c>
+      <c r="J37" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="K37" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3</v>
+      </c>
+      <c r="M37" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="N37" s="3">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1368,8 +2286,32 @@
       <c r="F38" s="1">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="1">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="I38" s="1">
+        <v>22</v>
+      </c>
+      <c r="J38" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="K38" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L38" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="M38" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N38" s="3">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1388,8 +2330,32 @@
       <c r="F39" s="1">
         <v>3.09</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="I39" s="1">
+        <v>22</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="K39" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L39" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="M39" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N39" s="3">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1408,8 +2374,32 @@
       <c r="F40" s="1">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="1">
+        <v>24</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="I40" s="1">
+        <v>30</v>
+      </c>
+      <c r="J40" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="K40" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="M40" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="N40" s="3">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1428,8 +2418,32 @@
       <c r="F41" s="1">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1">
+        <v>24</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="I41" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="K41" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="M41" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1448,8 +2462,32 @@
       <c r="F42" s="1">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1">
+        <v>21</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="I42" s="1">
+        <v>22</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3.76</v>
+      </c>
+      <c r="K42" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L42" s="1">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N42" s="3">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1468,8 +2506,32 @@
       <c r="F43" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="1">
+        <v>24</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I43" s="1">
+        <v>22</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="K43" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L43" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="M43" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N43" s="3">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1488,8 +2550,32 @@
       <c r="F44" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="1">
+        <v>21</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="I44" s="1">
+        <v>22</v>
+      </c>
+      <c r="J44" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="K44" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="L44" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="M44" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1508,8 +2594,32 @@
       <c r="F45" s="1">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="1">
+        <v>21</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3.79</v>
+      </c>
+      <c r="I45" s="1">
+        <v>22</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K45" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L45" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="M45" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N45" s="3">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1528,8 +2638,32 @@
       <c r="F46" s="1">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1">
+        <v>27</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="I46" s="1">
+        <v>30</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="L46" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="M46" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="N46" s="3">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1548,8 +2682,32 @@
       <c r="F47" s="1">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="1">
+        <v>21</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="I47" s="1">
+        <v>22</v>
+      </c>
+      <c r="J47" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="K47" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L47" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="M47" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N47" s="3">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1568,8 +2726,32 @@
       <c r="F48" s="1">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="1">
+        <v>21</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="I48" s="1">
+        <v>22</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="K48" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="M48" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N48" s="3">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1588,8 +2770,32 @@
       <c r="F49" s="1">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="1">
+        <v>21</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="I49" s="1">
+        <v>22</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="K49" s="1">
+        <v>18</v>
+      </c>
+      <c r="L49" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="M49" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N49" s="3">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1608,8 +2814,32 @@
       <c r="F50" s="1">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="1">
+        <v>21</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I50" s="1">
+        <v>22</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="K50" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L50" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="M50" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N50" s="3">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1628,8 +2858,32 @@
       <c r="F51" s="1">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="1">
+        <v>21</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="I51" s="1">
+        <v>22</v>
+      </c>
+      <c r="J51" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="K51" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L51" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="M51" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N51" s="3">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1648,8 +2902,32 @@
       <c r="F52" s="1">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="1">
+        <v>21</v>
+      </c>
+      <c r="H52" s="1">
+        <v>3.79</v>
+      </c>
+      <c r="I52" s="1">
+        <v>22</v>
+      </c>
+      <c r="J52" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="K52" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L52" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="M52" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N52" s="3">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1668,8 +2946,32 @@
       <c r="F53" s="1">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="1">
+        <v>21</v>
+      </c>
+      <c r="H53" s="1">
+        <v>4</v>
+      </c>
+      <c r="I53" s="1">
+        <v>22</v>
+      </c>
+      <c r="J53" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="K53" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="L53" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="M53" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N53" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1688,8 +2990,32 @@
       <c r="F54" s="1">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="1">
+        <v>30</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="I54" s="1">
+        <v>28</v>
+      </c>
+      <c r="J54" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="K54" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="M54" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="N54" s="3">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1708,8 +3034,32 @@
       <c r="F55" s="1">
         <v>2.92</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="1">
+        <v>27</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="I55" s="1">
+        <v>30</v>
+      </c>
+      <c r="J55" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="K55" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="M55" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="N55" s="3">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1727,6 +3077,30 @@
       </c>
       <c r="F56" s="1">
         <v>2.68</v>
+      </c>
+      <c r="G56" s="1">
+        <v>24</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="I56" s="1">
+        <v>28</v>
+      </c>
+      <c r="J56" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="K56" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="L56" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="M56" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="N56" s="3">
+        <v>3.08</v>
       </c>
     </row>
   </sheetData>

--- a/anunad_results.xlsx
+++ b/anunad_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\local\django projects\sec_res_administration\SecRDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C656F8-1386-4826-90FE-D4207752A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B55397C-B0D8-4AED-8967-921C2C6EFE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1032,7 @@
         <v>23.5</v>
       </c>
       <c r="N9" s="3">
-        <v>3.71</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">

--- a/anunad_results.xlsx
+++ b/anunad_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\local\django projects\sec_res_administration\SecRDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B55397C-B0D8-4AED-8967-921C2C6EFE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C06E7-5814-49F8-AC1E-2222FB4F4196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6648" yWindow="2652" windowWidth="14184" windowHeight="8664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q_all_sem" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Sl_No</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>gp-6</t>
+  </si>
+  <si>
+    <t>overall-credit</t>
+  </si>
+  <si>
+    <t>overall-gpa</t>
   </si>
 </sst>
 </file>
@@ -271,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,6 +287,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,26 +629,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" customWidth="1"/>
-    <col min="7" max="10" width="8.88671875" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="8.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,8 +693,14 @@
       <c r="N1" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -726,8 +743,14 @@
       <c r="N2" s="3">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="4">
+        <v>119.5</v>
+      </c>
+      <c r="P2" s="4">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -770,8 +793,14 @@
       <c r="N3" s="3">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="4">
+        <v>124</v>
+      </c>
+      <c r="P3" s="4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -814,8 +843,14 @@
       <c r="N4" s="3">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="4">
+        <v>115</v>
+      </c>
+      <c r="P4" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -858,8 +893,14 @@
       <c r="N5" s="3">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="4">
+        <v>124</v>
+      </c>
+      <c r="P5" s="4">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -902,8 +943,14 @@
       <c r="N6" s="3">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="4">
+        <v>124</v>
+      </c>
+      <c r="P6" s="4">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -946,8 +993,14 @@
       <c r="N7" s="3">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="4">
+        <v>124</v>
+      </c>
+      <c r="P7" s="4">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -990,8 +1043,14 @@
       <c r="N8" s="3">
         <v>3.73</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="4">
+        <v>124</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1034,8 +1093,14 @@
       <c r="N9" s="3">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="4">
+        <v>124</v>
+      </c>
+      <c r="P9" s="4">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1078,8 +1143,14 @@
       <c r="N10" s="3">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="4">
+        <v>119.5</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1122,8 +1193,14 @@
       <c r="N11" s="3">
         <v>3.78</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="4">
+        <v>123</v>
+      </c>
+      <c r="P11" s="4">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1166,8 +1243,14 @@
       <c r="N12" s="3">
         <v>3.78</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="4">
+        <v>124</v>
+      </c>
+      <c r="P12" s="4">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1210,8 +1293,14 @@
       <c r="N13" s="3">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="4">
+        <v>124</v>
+      </c>
+      <c r="P13" s="4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1254,8 +1343,14 @@
       <c r="N14" s="3">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="4">
+        <v>124</v>
+      </c>
+      <c r="P14" s="4">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1298,8 +1393,14 @@
       <c r="N15" s="3">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="4">
+        <v>124</v>
+      </c>
+      <c r="P15" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1342,8 +1443,14 @@
       <c r="N16" s="3">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="4">
+        <v>124</v>
+      </c>
+      <c r="P16" s="4">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1386,8 +1493,14 @@
       <c r="N17" s="3">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="4">
+        <v>103</v>
+      </c>
+      <c r="P17" s="4">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1430,8 +1543,14 @@
       <c r="N18" s="3">
         <v>3.88</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="4">
+        <v>124</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1474,8 +1593,14 @@
       <c r="N19" s="3">
         <v>3.59</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="4">
+        <v>118</v>
+      </c>
+      <c r="P19" s="4">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1518,8 +1643,14 @@
       <c r="N20" s="3">
         <v>3.86</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="4">
+        <v>124</v>
+      </c>
+      <c r="P20" s="4">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1562,8 +1693,14 @@
       <c r="N21" s="3">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="4">
+        <v>121</v>
+      </c>
+      <c r="P21" s="4">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1606,8 +1743,14 @@
       <c r="N22" s="3">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="4">
+        <v>124</v>
+      </c>
+      <c r="P22" s="4">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1650,8 +1793,14 @@
       <c r="N23" s="3">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="4">
+        <v>112</v>
+      </c>
+      <c r="P23" s="4">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1694,8 +1843,14 @@
       <c r="N24" s="3">
         <v>3.91</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="4">
+        <v>124</v>
+      </c>
+      <c r="P24" s="4">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1738,8 +1893,14 @@
       <c r="N25" s="3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="4">
+        <v>124</v>
+      </c>
+      <c r="P25" s="4">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1782,8 +1943,14 @@
       <c r="N26" s="3">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="4">
+        <v>118</v>
+      </c>
+      <c r="P26" s="4">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1826,8 +1993,14 @@
       <c r="N27" s="3">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="4">
+        <v>121</v>
+      </c>
+      <c r="P27" s="4">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1870,8 +2043,14 @@
       <c r="N28" s="3">
         <v>3.78</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="4">
+        <v>124</v>
+      </c>
+      <c r="P28" s="4">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1914,8 +2093,14 @@
       <c r="N29" s="3">
         <v>3.81</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="4">
+        <v>124</v>
+      </c>
+      <c r="P29" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1958,8 +2143,14 @@
       <c r="N30" s="3">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="4">
+        <v>124</v>
+      </c>
+      <c r="P30" s="4">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2002,8 +2193,14 @@
       <c r="N31" s="3">
         <v>3.59</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="4">
+        <v>121</v>
+      </c>
+      <c r="P31" s="4">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2046,8 +2243,14 @@
       <c r="N32" s="3">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="4">
+        <v>124</v>
+      </c>
+      <c r="P32" s="4">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2090,8 +2293,14 @@
       <c r="N33" s="3">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="4">
+        <v>124</v>
+      </c>
+      <c r="P33" s="4">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2134,8 +2343,14 @@
       <c r="N34" s="3">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="4">
+        <v>124</v>
+      </c>
+      <c r="P34" s="4">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2178,8 +2393,14 @@
       <c r="N35" s="3">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35" s="4">
+        <v>119.5</v>
+      </c>
+      <c r="P35" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2222,8 +2443,14 @@
       <c r="N36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="4">
+        <v>90</v>
+      </c>
+      <c r="P36" s="4">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2266,8 +2493,14 @@
       <c r="N37" s="3">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="4">
+        <v>109</v>
+      </c>
+      <c r="P37" s="4">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2310,8 +2543,14 @@
       <c r="N38" s="3">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38" s="4">
+        <v>124</v>
+      </c>
+      <c r="P38" s="4">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2354,8 +2593,14 @@
       <c r="N39" s="3">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="4">
+        <v>124</v>
+      </c>
+      <c r="P39" s="4">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2398,8 +2643,14 @@
       <c r="N40" s="3">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="4">
+        <v>103</v>
+      </c>
+      <c r="P40" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2442,8 +2693,14 @@
       <c r="N41" s="3">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41" s="4">
+        <v>115</v>
+      </c>
+      <c r="P41" s="4">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2486,8 +2743,14 @@
       <c r="N42" s="3">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="4">
+        <v>124</v>
+      </c>
+      <c r="P42" s="4">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2530,8 +2793,14 @@
       <c r="N43" s="3">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43" s="4">
+        <v>124</v>
+      </c>
+      <c r="P43" s="4">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2574,8 +2843,14 @@
       <c r="N44" s="3">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="4">
+        <v>118</v>
+      </c>
+      <c r="P44" s="4">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2618,8 +2893,14 @@
       <c r="N45" s="3">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45" s="4">
+        <v>124</v>
+      </c>
+      <c r="P45" s="4">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2662,8 +2943,14 @@
       <c r="N46" s="3">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46" s="4">
+        <v>115</v>
+      </c>
+      <c r="P46" s="4">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2706,8 +2993,14 @@
       <c r="N47" s="3">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O47" s="4">
+        <v>124</v>
+      </c>
+      <c r="P47" s="4">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2750,8 +3043,14 @@
       <c r="N48" s="3">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O48" s="4">
+        <v>124</v>
+      </c>
+      <c r="P48" s="4">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2794,8 +3093,14 @@
       <c r="N49" s="3">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O49" s="4">
+        <v>122.5</v>
+      </c>
+      <c r="P49" s="4">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2838,8 +3143,14 @@
       <c r="N50" s="3">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="4">
+        <v>124</v>
+      </c>
+      <c r="P50" s="4">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2882,8 +3193,14 @@
       <c r="N51" s="3">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O51" s="4">
+        <v>124</v>
+      </c>
+      <c r="P51" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2926,8 +3243,14 @@
       <c r="N52" s="3">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="4">
+        <v>124</v>
+      </c>
+      <c r="P52" s="4">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2970,8 +3293,14 @@
       <c r="N53" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="4">
+        <v>124</v>
+      </c>
+      <c r="P53" s="4">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3014,8 +3343,14 @@
       <c r="N54" s="3">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54" s="4">
+        <v>109</v>
+      </c>
+      <c r="P54" s="4">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3058,8 +3393,14 @@
       <c r="N55" s="3">
         <v>2.92</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="4">
+        <v>109</v>
+      </c>
+      <c r="P55" s="4">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3102,8 +3443,15 @@
       <c r="N56" s="3">
         <v>3.08</v>
       </c>
+      <c r="O56" s="4">
+        <v>121</v>
+      </c>
+      <c r="P56" s="4">
+        <v>3.21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/anunad_results.xlsx
+++ b/anunad_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony\Desktop\local\django projects\sec_res_administration\SecRDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C06E7-5814-49F8-AC1E-2222FB4F4196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F12302-D836-4D19-B46F-1ED6CEB9B599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6648" yWindow="2652" windowWidth="14184" windowHeight="8664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q_all_sem" sheetId="1" r:id="rId1"/>
@@ -631,21 +631,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="7" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" style="3" customWidth="1"/>
     <col min="15" max="15" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -1947,7 +1947,7 @@
         <v>118</v>
       </c>
       <c r="P26" s="4">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
